--- a/EXPORT_FILES/ВУНЦ=КОНКУРС.xlsx
+++ b/EXPORT_FILES/ВУНЦ=КОНКУРС.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\TEMPLATE_FILES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\backend\my-nest\TEMPLATE_FILES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{C01580F8-8917-49E8-BF24-D6245EF8BDA1}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{5140A2C8-B028-4CAF-ADD6-98912702533A}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView windowHeight="12576" windowWidth="23256" xWindow="-108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
+    <workbookView windowHeight="12360" windowWidth="19104" xWindow="2304" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Конкурсный список" r:id="rId1" sheetId="5"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="537">
   <si>
     <t>№ п/п</t>
   </si>
@@ -1676,37 +1676,16 @@
     <t>${table:БЛП.decision}</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Asd Asd Asd</t>
-  </si>
-  <si>
-    <t>Zxc Zxc Zxc</t>
+    <t>${table:Ш.subject_5}</t>
   </si>
   <si>
     <t>Qwe Qwe Qwe</t>
   </si>
   <si>
-    <t>17.01.2025</t>
-  </si>
-  <si>
-    <t>12.03.1231</t>
-  </si>
-  <si>
-    <t>12.03.1312</t>
+    <t>28.09.2002</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>0</t>
   </si>
 </sst>
 </file>
@@ -3260,13 +3239,13 @@
   <sheetPr codeName="Лист2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R68"/>
+  <dimension ref="A1:R66"/>
   <sheetViews>
     <sheetView colorId="32" defaultGridColor="0" showOutlineSymbols="0" tabSelected="1" workbookViewId="0" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="90">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="R3" xSplit="17" ySplit="2"/>
+      <pane activePane="bottomRight" state="frozen" topLeftCell="R27" xSplit="17" ySplit="2"/>
       <selection activeCell="P1" pane="topRight" sqref="P1"/>
       <selection activeCell="A4" pane="bottomLeft" sqref="A4"/>
-      <selection activeCell="O4" pane="bottomRight" sqref="O4"/>
+      <selection activeCell="M30" pane="bottomRight" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -3363,153 +3342,71 @@
       <c r="R3" s="3"/>
     </row>
     <row customHeight="1" ht="15" r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
-        <v>533</v>
-      </c>
-      <c r="B4" s="30" t="s">
-        <v>536</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>539</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>542</v>
-      </c>
-      <c r="E4" s="30" t="s">
-        <v>542</v>
-      </c>
-      <c r="F4" s="30" t="s">
-        <v>542</v>
-      </c>
-      <c r="G4" s="30" t="s">
-        <v>542</v>
-      </c>
-      <c r="H4" s="30" t="s">
-        <v>542</v>
-      </c>
-      <c r="I4" s="30" t="s">
-        <v>543</v>
-      </c>
-      <c r="J4" s="30" t="s">
-        <v>543</v>
-      </c>
-      <c r="K4" s="30" t="s">
-        <v>543</v>
-      </c>
-      <c r="L4" s="30" t="s">
-        <v>542</v>
-      </c>
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
       <c r="M4" s="30"/>
-      <c r="N4" s="30" t="s">
-        <v>542</v>
-      </c>
-      <c r="O4" s="30" t="s">
-        <v>543</v>
-      </c>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
       <c r="P4" s="31">
         <f>SUM(I4:O4)</f>
       </c>
-      <c r="Q4" s="30" t="s">
-        <v>9</v>
-      </c>
+      <c r="Q4" s="30"/>
     </row>
     <row customHeight="1" ht="15" r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
-        <v>534</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>537</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>540</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>542</v>
-      </c>
-      <c r="E5" s="30" t="s">
-        <v>542</v>
-      </c>
-      <c r="F5" s="30" t="s">
-        <v>542</v>
-      </c>
-      <c r="G5" s="30" t="s">
-        <v>542</v>
-      </c>
-      <c r="H5" s="30" t="s">
-        <v>542</v>
-      </c>
-      <c r="I5" s="30" t="s">
-        <v>543</v>
-      </c>
-      <c r="J5" s="30" t="s">
-        <v>543</v>
-      </c>
-      <c r="K5" s="30" t="s">
-        <v>543</v>
-      </c>
-      <c r="L5" s="30" t="s">
-        <v>542</v>
-      </c>
-      <c r="N5" s="30" t="s">
-        <v>542</v>
-      </c>
-      <c r="O5" s="30" t="s">
-        <v>543</v>
-      </c>
-      <c r="Q5" s="30" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
-        <v>535</v>
-      </c>
-      <c r="B6" s="30" t="s">
-        <v>538</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>541</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>542</v>
-      </c>
-      <c r="E6" s="30" t="s">
-        <v>542</v>
-      </c>
-      <c r="F6" s="30" t="s">
-        <v>542</v>
-      </c>
-      <c r="G6" s="30" t="s">
-        <v>542</v>
-      </c>
-      <c r="H6" s="30" t="s">
-        <v>542</v>
-      </c>
-      <c r="I6" s="30" t="s">
-        <v>543</v>
-      </c>
-      <c r="J6" s="30" t="s">
-        <v>543</v>
-      </c>
-      <c r="K6" s="30" t="s">
-        <v>543</v>
-      </c>
-      <c r="L6" s="30" t="s">
-        <v>542</v>
-      </c>
-      <c r="N6" s="30" t="s">
-        <v>542</v>
-      </c>
-      <c r="O6" s="30" t="s">
-        <v>543</v>
-      </c>
-      <c r="Q6" s="30" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="32"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="36"/>
+    </row>
+    <row ht="66" r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="25">
+        <f>SUM(I6:O6)</f>
+      </c>
+      <c r="Q6" s="30"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B7" s="32"/>
       <c r="C7" s="33"/>
@@ -3545,13 +3442,13 @@
       <c r="N8" s="30"/>
       <c r="O8" s="30"/>
       <c r="P8" s="25">
-        <f>SUM(I6:O6)</f>
+        <f ref="P8:P60" si="0" t="shared">SUM(I8:O8)</f>
       </c>
       <c r="Q8" s="30"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B9" s="32"/>
       <c r="C9" s="33"/>
@@ -3587,13 +3484,13 @@
       <c r="N10" s="30"/>
       <c r="O10" s="30"/>
       <c r="P10" s="25">
-        <f ref="P8:P60" si="0" t="shared">SUM(I8:O8)</f>
+        <f si="0" t="shared"/>
       </c>
       <c r="Q10" s="30"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B11" s="32"/>
       <c r="C11" s="33"/>
@@ -3635,7 +3532,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B13" s="32"/>
       <c r="C13" s="33"/>
@@ -3677,7 +3574,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B15" s="32"/>
       <c r="C15" s="33"/>
@@ -3712,14 +3609,14 @@
       <c r="M16" s="30"/>
       <c r="N16" s="30"/>
       <c r="O16" s="30"/>
-      <c r="P16" s="25">
+      <c r="P16" s="26">
         <f si="0" t="shared"/>
       </c>
       <c r="Q16" s="30"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B17" s="32"/>
       <c r="C17" s="33"/>
@@ -3738,7 +3635,7 @@
       <c r="P17" s="23"/>
       <c r="Q17" s="36"/>
     </row>
-    <row ht="66" r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row ht="66" r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="30"/>
       <c r="B18" s="30"/>
       <c r="C18" s="30"/>
@@ -3761,7 +3658,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" s="32"/>
       <c r="C19" s="33"/>
@@ -3803,7 +3700,7 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B21" s="32"/>
       <c r="C21" s="33"/>
@@ -3845,7 +3742,7 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B23" s="32"/>
       <c r="C23" s="33"/>
@@ -3887,7 +3784,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B25" s="32"/>
       <c r="C25" s="33"/>
@@ -3929,7 +3826,7 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B27" s="32"/>
       <c r="C27" s="33"/>
@@ -3971,7 +3868,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B29" s="32"/>
       <c r="C29" s="33"/>
@@ -3991,29 +3888,61 @@
       <c r="Q29" s="36"/>
     </row>
     <row ht="66" r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="30"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="30"/>
-      <c r="N30" s="30"/>
-      <c r="O30" s="30"/>
+      <c r="A30" s="30">
+        <v>1</v>
+      </c>
+      <c r="B30" s="30" t="s">
+        <v>534</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>535</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>536</v>
+      </c>
+      <c r="E30" s="30" t="s">
+        <v>536</v>
+      </c>
+      <c r="F30" s="30" t="s">
+        <v>536</v>
+      </c>
+      <c r="G30" s="30" t="s">
+        <v>536</v>
+      </c>
+      <c r="H30" s="30" t="s">
+        <v>536</v>
+      </c>
+      <c r="I30" s="30">
+        <v>0</v>
+      </c>
+      <c r="J30" s="30">
+        <v>0</v>
+      </c>
+      <c r="K30" s="30" t="s">
+        <v>536</v>
+      </c>
+      <c r="L30" s="30" t="s">
+        <v>536</v>
+      </c>
+      <c r="M30" s="30">
+        <v>35</v>
+      </c>
+      <c r="N30" s="30" t="s">
+        <v>536</v>
+      </c>
+      <c r="O30" s="30">
+        <v>0</v>
+      </c>
       <c r="P30" s="26">
         <f si="0" t="shared"/>
       </c>
-      <c r="Q30" s="30"/>
+      <c r="Q30" s="30" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B31" s="32"/>
       <c r="C31" s="33"/>
@@ -4055,7 +3984,7 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B33" s="32"/>
       <c r="C33" s="33"/>
@@ -4074,7 +4003,7 @@
       <c r="P33" s="23"/>
       <c r="Q33" s="36"/>
     </row>
-    <row ht="66" r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="15.75" r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="30"/>
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
@@ -4090,14 +4019,12 @@
       <c r="M34" s="30"/>
       <c r="N34" s="30"/>
       <c r="O34" s="30"/>
-      <c r="P34" s="26">
-        <f si="0" t="shared"/>
-      </c>
+      <c r="P34" s="27"/>
       <c r="Q34" s="30"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="15.75" r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B35" s="32"/>
       <c r="C35" s="33"/>
@@ -4116,7 +4043,7 @@
       <c r="P35" s="23"/>
       <c r="Q35" s="36"/>
     </row>
-    <row customHeight="1" ht="15.75" r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row ht="66" r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="30"/>
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
@@ -4132,12 +4059,14 @@
       <c r="M36" s="30"/>
       <c r="N36" s="30"/>
       <c r="O36" s="30"/>
-      <c r="P36" s="27"/>
+      <c r="P36" s="25">
+        <f si="0" t="shared"/>
+      </c>
       <c r="Q36" s="30"/>
     </row>
-    <row customHeight="1" ht="15.75" r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37" s="32"/>
       <c r="C37" s="33"/>
@@ -4179,7 +4108,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B39" s="32"/>
       <c r="C39" s="33"/>
@@ -4221,7 +4150,7 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41" s="32"/>
       <c r="C41" s="33"/>
@@ -4263,7 +4192,7 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B43" s="32"/>
       <c r="C43" s="33"/>
@@ -4305,7 +4234,7 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B45" s="32"/>
       <c r="C45" s="33"/>
@@ -4347,7 +4276,7 @@
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B47" s="32"/>
       <c r="C47" s="33"/>
@@ -4389,7 +4318,7 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49" s="32"/>
       <c r="C49" s="33"/>
@@ -4431,7 +4360,7 @@
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B51" s="32"/>
       <c r="C51" s="33"/>
@@ -4473,7 +4402,7 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B53" s="32"/>
       <c r="C53" s="33"/>
@@ -4515,7 +4444,7 @@
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B55" s="32"/>
       <c r="C55" s="33"/>
@@ -4557,7 +4486,7 @@
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B57" s="32"/>
       <c r="C57" s="33"/>
@@ -4634,7 +4563,7 @@
       <c r="M60" s="30"/>
       <c r="N60" s="30"/>
       <c r="O60" s="30"/>
-      <c r="P60" s="25">
+      <c r="P60" s="28">
         <f si="0" t="shared"/>
       </c>
       <c r="Q60" s="30"/>
@@ -4676,9 +4605,7 @@
       <c r="M62" s="30"/>
       <c r="N62" s="30"/>
       <c r="O62" s="30"/>
-      <c r="P62" s="28">
-        <f si="0" t="shared"/>
-      </c>
+      <c r="P62" s="23"/>
       <c r="Q62" s="30"/>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
@@ -4718,7 +4645,9 @@
       <c r="M64" s="30"/>
       <c r="N64" s="30"/>
       <c r="O64" s="30"/>
-      <c r="P64" s="23"/>
+      <c r="P64" s="29">
+        <f>SUM(I64:O64)</f>
+      </c>
       <c r="Q64" s="30"/>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
@@ -4758,52 +4687,10 @@
       <c r="M66" s="30"/>
       <c r="N66" s="30"/>
       <c r="O66" s="30"/>
-      <c r="P66" s="29">
-        <f>SUM(I64:O64)</f>
+      <c r="P66" s="31">
+        <f ref="P66" si="1" t="shared">SUM(I66:O66)</f>
       </c>
       <c r="Q66" s="30"/>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A67" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B67" s="32"/>
-      <c r="C67" s="33"/>
-      <c r="D67" s="34"/>
-      <c r="E67" s="35"/>
-      <c r="F67" s="36"/>
-      <c r="G67" s="36"/>
-      <c r="H67" s="36"/>
-      <c r="I67" s="36"/>
-      <c r="J67" s="36"/>
-      <c r="K67" s="36"/>
-      <c r="L67" s="37"/>
-      <c r="M67" s="37"/>
-      <c r="N67" s="36"/>
-      <c r="O67" s="36"/>
-      <c r="P67" s="23"/>
-      <c r="Q67" s="36"/>
-    </row>
-    <row ht="66" r="68" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A68" s="30"/>
-      <c r="B68" s="30"/>
-      <c r="C68" s="30"/>
-      <c r="D68" s="30"/>
-      <c r="E68" s="30"/>
-      <c r="F68" s="30"/>
-      <c r="G68" s="30"/>
-      <c r="H68" s="30"/>
-      <c r="I68" s="30"/>
-      <c r="J68" s="30"/>
-      <c r="K68" s="30"/>
-      <c r="L68" s="30"/>
-      <c r="M68" s="30"/>
-      <c r="N68" s="30"/>
-      <c r="O68" s="30"/>
-      <c r="P68" s="31">
-        <f ref="P66" si="1" t="shared">SUM(I66:O66)</f>
-      </c>
-      <c r="Q68" s="30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
